--- a/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\FSE\GATEWAY\Accreditamento\Accreditamento Gateway 20250327\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\FSE\GATEWAY\Accreditamento\Accreditamento Gateway 20250409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7F1FA5-7FF9-46FB-A33B-16177DCAD1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55976AA-DE4F-43CB-9237-262A8872600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1704,29 +1704,29 @@
     <t>subject_application_version: 4.1.0</t>
   </si>
   <si>
-    <t>2025-03-27T15:53:18Z</t>
-  </si>
-  <si>
-    <t>54c2d733b3d2e548</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.873297f4b626ea18d19b84c3bbb6fca9e996d7a59979233b138a35d676daebd3.393ff456e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-27T15:55:45Z</t>
-  </si>
-  <si>
-    <t>19595902af83ad17</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.a0fd791cc4a48d2f79bbe390d9284919a8d8da9bec184a40b33aa01085de7600.f50b0a6e36^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Invio Patient Summary fallito.
 TIMEOUT del servizio.</t>
   </si>
   <si>
     <t>Al medico compare un dialog box con il messaggio di errore.</t>
+  </si>
+  <si>
+    <t>2025-04-09T08:55:59Z</t>
+  </si>
+  <si>
+    <t>2025-04-09T08:59:12Z</t>
+  </si>
+  <si>
+    <t>ef9bf34e62be177a</t>
+  </si>
+  <si>
+    <t>ac2170c2ca4dd10a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.720d17e6b939bce2bfd01854d2c850d776048fd18bdfe601d59b9d20cf1c4764.72904e7223^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.5ee8ef4d4242c8a2ab9f4ad42fe14ec9f5bf608d5ab21953e56543745c0fb9b4.9d71a5743a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2336,6 +2336,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2357,9 +2360,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3807,10 +3807,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
+      <selection pane="bottomRight" activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3852,14 +3852,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3880,14 +3880,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3908,12 +3908,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3935,12 +3935,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="49"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3961,8 +3961,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4843,8 +4843,8 @@
       <c r="N29" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="57" t="s">
-        <v>444</v>
+      <c r="O29" s="45" t="s">
+        <v>438</v>
       </c>
       <c r="P29" s="29" t="s">
         <v>234</v>
@@ -4855,8 +4855,8 @@
       <c r="R29" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S29" s="57" t="s">
-        <v>445</v>
+      <c r="S29" s="45" t="s">
+        <v>439</v>
       </c>
       <c r="T29" s="29"/>
       <c r="U29" s="34" t="s">
@@ -9986,16 +9986,16 @@
         <v>249</v>
       </c>
       <c r="F166" s="33">
-        <v>45743</v>
+        <v>45756</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="I166" s="39" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="J166" s="29" t="s">
         <v>66</v>
@@ -10033,16 +10033,16 @@
         <v>250</v>
       </c>
       <c r="F167" s="33">
-        <v>45743</v>
+        <v>45756</v>
       </c>
       <c r="G167" s="33" t="s">
         <v>441</v>
       </c>
       <c r="H167" s="33" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I167" s="39" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J167" s="29" t="s">
         <v>66</v>
@@ -15090,8 +15090,8 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -17362,6 +17362,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17619,15 +17628,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -17641,6 +17641,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17655,14 +17663,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\FSE\GATEWAY\Accreditamento\Accreditamento Gateway 20250409\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\FSE\GATEWAY\Accreditamento\Accreditamento Gateway 20250411\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55976AA-DE4F-43CB-9237-262A8872600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEAFD0-34A8-4FF8-9B07-71251ED2F4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1711,22 +1711,22 @@
     <t>Al medico compare un dialog box con il messaggio di errore.</t>
   </si>
   <si>
-    <t>2025-04-09T08:55:59Z</t>
-  </si>
-  <si>
-    <t>2025-04-09T08:59:12Z</t>
-  </si>
-  <si>
-    <t>ef9bf34e62be177a</t>
-  </si>
-  <si>
-    <t>ac2170c2ca4dd10a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.720d17e6b939bce2bfd01854d2c850d776048fd18bdfe601d59b9d20cf1c4764.72904e7223^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.5ee8ef4d4242c8a2ab9f4ad42fe14ec9f5bf608d5ab21953e56543745c0fb9b4.9d71a5743a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-04-11T14:24:40Z</t>
+  </si>
+  <si>
+    <t>2025-04-11T14:27:33Z</t>
+  </si>
+  <si>
+    <t>660b3e853425b527ec6a25f677cb2f7a</t>
+  </si>
+  <si>
+    <t>85e817ba2b6933a5e80f8b55f21b89cc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e8f6d34ac77085048b376390024db5e104c71bed97876dc1ea9ac6bb9384ed35.a2dac0dbc6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.cbea2ca3009f6f7ac1689f91020de1d2d01b3952d93eb9ebe73d1c0ab866a8be.009b3f0c81^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -9986,7 +9986,7 @@
         <v>249</v>
       </c>
       <c r="F166" s="33">
-        <v>45756</v>
+        <v>45758</v>
       </c>
       <c r="G166" s="33" t="s">
         <v>440</v>
@@ -10033,7 +10033,7 @@
         <v>250</v>
       </c>
       <c r="F167" s="33">
-        <v>45756</v>
+        <v>45758</v>
       </c>
       <c r="G167" s="33" t="s">
         <v>441</v>
@@ -17362,12 +17362,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17629,21 +17632,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17668,18 +17677,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\FSE\GATEWAY\Accreditamento\Accreditamento Gateway 20250411\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEAFD0-34A8-4FF8-9B07-71251ED2F4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715A4E15-3840-486E-896F-8F5188DED77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1711,22 +1711,22 @@
     <t>Al medico compare un dialog box con il messaggio di errore.</t>
   </si>
   <si>
-    <t>2025-04-11T14:24:40Z</t>
-  </si>
-  <si>
-    <t>2025-04-11T14:27:33Z</t>
-  </si>
-  <si>
-    <t>660b3e853425b527ec6a25f677cb2f7a</t>
-  </si>
-  <si>
-    <t>85e817ba2b6933a5e80f8b55f21b89cc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e8f6d34ac77085048b376390024db5e104c71bed97876dc1ea9ac6bb9384ed35.a2dac0dbc6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.cbea2ca3009f6f7ac1689f91020de1d2d01b3952d93eb9ebe73d1c0ab866a8be.009b3f0c81^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>3a46c3b2a95d5111d8fd275579b1567b</t>
+  </si>
+  <si>
+    <t>8240048ae3d6f84a8776c4975897a8c4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.dec59a121a7229a4cf2b94b5817a6c99943db3cc12652f0bc5b30ffd57cd3fe0.a6083bf6a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.4d9441a06327bfd6c118885c734f0cdc269df660d39dfbe9938b480cc68e10b4.f68c10cd13^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-11T14:38:12Z</t>
+  </si>
+  <si>
+    <t>2025-04-11T14:39:50Z</t>
   </si>
 </sst>
 </file>
@@ -3810,7 +3810,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I190" sqref="I190"/>
+      <selection pane="bottomRight" activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9989,13 +9989,13 @@
         <v>45758</v>
       </c>
       <c r="G166" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="H166" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="H166" s="33" t="s">
+      <c r="I166" s="39" t="s">
         <v>442</v>
-      </c>
-      <c r="I166" s="39" t="s">
-        <v>444</v>
       </c>
       <c r="J166" s="29" t="s">
         <v>66</v>
@@ -10036,13 +10036,13 @@
         <v>45758</v>
       </c>
       <c r="G167" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="H167" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="H167" s="33" t="s">
+      <c r="I167" s="39" t="s">
         <v>443</v>
-      </c>
-      <c r="I167" s="39" t="s">
-        <v>445</v>
       </c>
       <c r="J167" s="29" t="s">
         <v>66</v>
@@ -17362,15 +17362,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17632,27 +17629,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17677,9 +17668,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111TSFNETXX/TSF_SRL/IATROS/4.1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\FSE\GATEWAY\Accreditamento\Accreditamento Gateway 20250507\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea.buzzino\Documents\FSE\GATEWAY\Accreditamento\Accreditamento Gateway 20250508\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0A1054-2C68-4CB9-BB5A-EB4BD4E62E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB5BBC-BD5B-4AC4-AFF5-06D7C0754F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1721,22 +1721,22 @@
     <t>Al medico compare un dialog box con il messaggio di errore.</t>
   </si>
   <si>
-    <t>2025-05-07T09:55:33Z</t>
-  </si>
-  <si>
-    <t>2025-05-07T10:02:02Z</t>
-  </si>
-  <si>
-    <t>76bd6c0f55306a23727f456a17cbc260</t>
-  </si>
-  <si>
-    <t>d850e74a0f7448f309218f9d11c4e58b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.dec59a121a7229a4cf2b94b5817a6c99943db3cc12652f0bc5b30ffd57cd3fe0.186d354a8e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50.4.4.10928713aad9ffefe3dc6a2b46bf7b17d4a0fd623cf513de4b53357eb54d1141.f6d09c35ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-08T15:46:42Z</t>
+  </si>
+  <si>
+    <t>2025-05-08T15:49:00Z</t>
+  </si>
+  <si>
+    <t>d158a5e86b09d2b9b1eeab1ee53efb67</t>
+  </si>
+  <si>
+    <t>5139e80a748d6ef7eddfb953afeb6ba9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.a8385e58f00f2328c5233bf3f3606b7083af9512c60f1e4aab7115960dc5bfb2.701d1cbc11^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50.4.4.340bf5ed66285658f3094cadc45a62fca50c56be7cf15b46d10fb98ad63ceeb8.bfdbef2712^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2346,6 +2346,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2367,9 +2370,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3820,7 +3820,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="C146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
+      <selection pane="bottomRight" activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3864,14 +3864,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3892,14 +3892,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3920,12 +3920,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57" t="s">
         <v>439</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3947,12 +3947,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="49"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3973,8 +3973,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4855,7 +4855,7 @@
       <c r="N29" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="57" t="s">
+      <c r="O29" s="45" t="s">
         <v>441</v>
       </c>
       <c r="P29" s="38" t="s">
@@ -4867,7 +4867,7 @@
       <c r="R29" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S29" s="57" t="s">
+      <c r="S29" s="45" t="s">
         <v>442</v>
       </c>
       <c r="T29" s="38"/>
@@ -10035,7 +10035,7 @@
         <v>247</v>
       </c>
       <c r="F167" s="37">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="G167" s="37" t="s">
         <v>443</v>
@@ -10082,7 +10082,7 @@
         <v>248</v>
       </c>
       <c r="F168" s="37">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="G168" s="37" t="s">
         <v>444</v>
@@ -17371,27 +17371,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17649,10 +17628,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17675,20 +17686,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>